--- a/【虹信软件】关于提交个人所得税《专项附加扣除信息》表的通知201812271/虹信杨新强20182201 专项附加扣除信息.xlsx
+++ b/【虹信软件】关于提交个人所得税《专项附加扣除信息》表的通知201812271/虹信杨新强20182201 专项附加扣除信息.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\【虹信软件】关于提交个人所得税《专项附加扣除信息》表的通知201812271\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D4679-6FF8-4EE4-BA75-B4D5F809A1DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2B1B8-AF82-46B1-88E3-A8388E23EFBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="BBA0" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="810" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="12" r:id="rId1"/>
@@ -4734,9 +4734,6 @@
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
-    <t>赡养人平均分摊</t>
-  </si>
-  <si>
     <t>杨精业</t>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
@@ -4768,6 +4765,9 @@
   <si>
     <t>yangxq5858@qq.com</t>
     <phoneticPr fontId="39" type="noConversion"/>
+  </si>
+  <si>
+    <t>赡养人约定分摊</t>
   </si>
 </sst>
 </file>
@@ -5563,67 +5563,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5654,6 +5600,60 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
@@ -5665,6 +5665,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5686,22 +5702,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6470,7 +6470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
@@ -6492,175 +6492,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134">
         <v>2019</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="109" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="109"/>
+      <c r="I1" s="133"/>
       <c r="J1" s="102" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128" t="s">
         <v>1036</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="111" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="113"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="89" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="115" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="129" t="s">
         <v>1038</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118" t="s">
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="119"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="89"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="122" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="111"/>
+      <c r="J4" s="91" t="s">
         <v>1061</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="91" t="s">
-        <v>1062</v>
-      </c>
       <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="124" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="126"/>
+      <c r="I5" s="121"/>
       <c r="J5" s="89"/>
       <c r="K5" s="92"/>
     </row>
     <row r="6" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114" t="s">
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128" t="s">
         <v>1039</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="118" t="str">
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="109" t="str">
         <f>IF(D6="有配偶","*配偶姓名","配偶姓名")</f>
         <v>*配偶姓名</v>
       </c>
-      <c r="I6" s="119"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="103" t="s">
         <v>1040</v>
       </c>
       <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="118" t="str">
+      <c r="A7" s="109" t="str">
         <f>IF(D6="有配偶","*配偶身份类型","配偶身份证件类型")</f>
         <v>*配偶身份类型</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="128" t="s">
+      <c r="B7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112" t="s">
         <v>1036</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="118" t="str">
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="109" t="str">
         <f>IF(D6="有配偶","*配偶身份证件号码","配偶身份证件号码")</f>
         <v>*配偶身份证件号码</v>
       </c>
-      <c r="I7" s="119"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="103" t="s">
         <v>1041</v>
       </c>
       <c r="K7" s="92"/>
     </row>
     <row r="8" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="115" t="s">
         <v>1042</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="93" t="s">
         <v>24</v>
       </c>
@@ -6668,30 +6668,30 @@
   </sheetData>
   <sheetProtection password="BBA0" sheet="1" objects="1"/>
   <mergeCells count="24">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -9058,16 +9058,16 @@
       <c r="A2" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140" t="s">
+      <c r="B2" s="143"/>
+      <c r="C2" s="144" t="s">
         <v>1047</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
     </row>
     <row r="3" spans="1:10" s="49" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
@@ -9091,83 +9091,90 @@
       <c r="G3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="146" t="s">
         <v>1048</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:10" s="49" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="50" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="143" t="s">
+      <c r="G4" s="148"/>
+      <c r="H4" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="144"/>
+      <c r="I4" s="148"/>
     </row>
     <row r="5" spans="1:10" s="49" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
         <v>1</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="140" t="s">
         <v>1050</v>
       </c>
-      <c r="C5" s="146"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="108" t="s">
         <v>1051</v>
       </c>
       <c r="E5" s="105" t="s">
         <v>1052</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="141">
         <v>41739</v>
       </c>
-      <c r="G5" s="147"/>
-      <c r="H5" s="148">
+      <c r="G5" s="141"/>
+      <c r="H5" s="142">
         <v>240</v>
       </c>
-      <c r="I5" s="148"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:10" s="49" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="52"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
       <c r="J6" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
     </row>
   </sheetData>
   <sheetProtection password="BBA0" sheet="1" objects="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
@@ -9175,13 +9182,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="D5">
@@ -9235,8 +9235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9264,7 +9264,7 @@
       <c r="G1" s="136"/>
     </row>
     <row r="2" spans="1:9" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="147" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="149"/>
@@ -9276,7 +9276,7 @@
         <v>*分摊方式</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>66</v>
@@ -9325,20 +9325,20 @@
         <v>71</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>1036</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E5" s="44" t="str">
         <f>IF(C5="居民身份证","中国"," ")</f>
         <v>中国</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G5" s="45" t="str">
         <f>IF(C5="居民身份证",TEXT((LEN(D5)=15)*19&amp;MID(D5,7,6+(LEN(D5)=18)*2),"0000-00-00")," ")</f>
@@ -9350,20 +9350,20 @@
         <v>72</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>1036</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E6" s="44" t="str">
         <f>IF(C6="居民身份证","中国"," ")</f>
         <v>中国</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G6" s="45" t="str">
         <f>IF(C6="居民身份证",TEXT((LEN(D6)=15)*19&amp;MID(D6,7,6+(LEN(D6)=18)*2),"0000-00-00")," ")</f>
@@ -9443,13 +9443,13 @@
         <v>71</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>1036</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E11" s="44" t="str">
         <f>IF(C11="居民身份证","中国"," ")</f>

--- a/【虹信软件】关于提交个人所得税《专项附加扣除信息》表的通知201812271/虹信杨新强20182201 专项附加扣除信息.xlsx
+++ b/【虹信软件】关于提交个人所得税《专项附加扣除信息》表的通知201812271/虹信杨新强20182201 专项附加扣除信息.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0.中泰化学\zthx_ocss\【虹信软件】关于提交个人所得税《专项附加扣除信息》表的通知201812271\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2B1B8-AF82-46B1-88E3-A8388E23EFBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE18EA15-8EBA-43B1-B786-65BC68D2045E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="BBA0" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="810" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" tabRatio="810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明" sheetId="12" r:id="rId1"/>
@@ -5563,13 +5563,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5600,60 +5654,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
@@ -5665,22 +5665,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5702,6 +5686,22 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6492,175 +6492,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110">
         <v>2019</v>
       </c>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="133" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="133"/>
+      <c r="I1" s="109"/>
       <c r="J1" s="102" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114" t="s">
         <v>1036</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="125" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="127"/>
+      <c r="I2" s="113"/>
       <c r="J2" s="89" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="129" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="115" t="s">
         <v>1038</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="109" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="111"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="89"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="122" t="s">
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123" t="s">
         <v>1060</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="109" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="111"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="91" t="s">
         <v>1061</v>
       </c>
       <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="119" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="121"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="89"/>
       <c r="K5" s="92"/>
     </row>
     <row r="6" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114" t="s">
         <v>1039</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="109" t="str">
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="118" t="str">
         <f>IF(D6="有配偶","*配偶姓名","配偶姓名")</f>
         <v>*配偶姓名</v>
       </c>
-      <c r="I6" s="111"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="103" t="s">
         <v>1040</v>
       </c>
       <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:11" s="87" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="str">
+      <c r="A7" s="118" t="str">
         <f>IF(D6="有配偶","*配偶身份类型","配偶身份证件类型")</f>
         <v>*配偶身份类型</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="127"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="128" t="s">
         <v>1036</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="109" t="str">
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="118" t="str">
         <f>IF(D6="有配偶","*配偶身份证件号码","配偶身份证件号码")</f>
         <v>*配偶身份证件号码</v>
       </c>
-      <c r="I7" s="111"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="103" t="s">
         <v>1041</v>
       </c>
       <c r="K7" s="92"/>
     </row>
     <row r="8" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="131" t="s">
         <v>1042</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
     </row>
     <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="93" t="s">
         <v>24</v>
       </c>
@@ -6668,30 +6668,30 @@
   </sheetData>
   <sheetProtection password="BBA0" sheet="1" objects="1"/>
   <mergeCells count="24">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -6760,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -6883,7 +6883,7 @@
         <v>1046</v>
       </c>
       <c r="N3" s="81">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="65" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9058,16 +9058,16 @@
       <c r="A2" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="144" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="140" t="s">
         <v>1047</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
     </row>
     <row r="3" spans="1:10" s="49" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
@@ -9091,83 +9091,90 @@
       <c r="G3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="142" t="s">
         <v>1048</v>
       </c>
-      <c r="I3" s="146"/>
+      <c r="I3" s="142"/>
     </row>
     <row r="4" spans="1:10" s="49" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="148"/>
+      <c r="C4" s="144"/>
       <c r="D4" s="50" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="148"/>
-      <c r="H4" s="147" t="s">
+      <c r="G4" s="144"/>
+      <c r="H4" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="148"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="1:10" s="49" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
         <v>1</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="146" t="s">
         <v>1050</v>
       </c>
-      <c r="C5" s="140"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="108" t="s">
         <v>1051</v>
       </c>
       <c r="E5" s="105" t="s">
         <v>1052</v>
       </c>
-      <c r="F5" s="141">
+      <c r="F5" s="147">
         <v>41739</v>
       </c>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142">
+      <c r="G5" s="147"/>
+      <c r="H5" s="148">
         <v>240</v>
       </c>
-      <c r="I5" s="142"/>
+      <c r="I5" s="148"/>
     </row>
     <row r="6" spans="1:10" s="49" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="52"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
     </row>
   </sheetData>
   <sheetProtection password="BBA0" sheet="1" objects="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:I2"/>
@@ -9175,13 +9182,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="D5">
@@ -9235,7 +9235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -9264,7 +9264,7 @@
       <c r="G1" s="136"/>
     </row>
     <row r="2" spans="1:9" s="30" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="143" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="149"/>
